--- a/Project Management/requirements_register.xlsx
+++ b/Project Management/requirements_register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225520\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225507\Documents\GitHub\asd-engd-project-2022-extrinsic-sensor-calibration\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D44EE1-80A5-49AB-9EDB-42978D5A0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6942A034-36B7-4E50-BB65-E2D94ECED10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C720F0E0-F3CE-44DE-A64C-2B49D8329039}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C720F0E0-F3CE-44DE-A64C-2B49D8329039}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Needs</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>• The Sensor Calibration System shall use MATLAB figure Post Processed data (.fig) from 4D Imaging Radar (MMWCAS-RF-EVM + MMWCAS-DSP-EVM)</t>
-  </si>
-  <si>
-    <t>• when provided with raw sensor data, The  Sensor Calibration System shall extract 4D Point Cloud Data in .mat format in 20s</t>
-  </si>
-  <si>
-    <t>• when provided with raw sensor data, The  Sensor Calibration System shall extract image data with RGB pixels in .mat format in 10s</t>
   </si>
   <si>
     <t>• The Wikipage shall include at least 3 open source and calibrated automotive sensor datasets</t>
@@ -179,9 +173,6 @@
     <t>• the Project Wikipage shall have the findings, Calibration System, procedure, observations and conclusions of In-house project I</t>
   </si>
   <si>
-    <t>• the Project Wikipage shall include the logical and physical architecture of the Extrinsic Calibration System</t>
-  </si>
-  <si>
     <t>Extrinsic Calibration System Architecture</t>
   </si>
   <si>
@@ -194,10 +185,19 @@
     <t xml:space="preserve">Link for data storage on Wikipage </t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Sr. No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• when provided with raw sensor data, The  Sensor Calibration System shall extract 4D Point Cloud Data in .mat format </t>
+  </si>
+  <si>
+    <t>• when provided with raw sensor data, The  Sensor Calibration System shall extract image data with RGB pixels in .mat format</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>• the Project Wikipage shall include the physical architecture of the Extrinsic Calibration System</t>
   </si>
 </sst>
 </file>
@@ -278,7 +278,48 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -312,7 +353,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -329,6 +370,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -354,48 +396,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -418,14 +418,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4096F9DB-76E6-4E28-81A4-C385BC90C799}" name="Table1" displayName="Table1" ref="B1:G14" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4096F9DB-76E6-4E28-81A4-C385BC90C799}" name="Table1" displayName="Table1" ref="B1:G14" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{7B152512-8A94-4B7E-B4FF-B90B58C9621A}" name="Needs" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{76C202CC-0587-41E5-B458-2A8BEA8C3329}" name="Requirements" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{E9574316-2D65-4AF9-8885-A7242BA5FCB2}" name="Validation" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{555AF6C9-D83E-4820-8582-962A4681B52D}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{490B23D2-915E-4759-9D79-04476ADB20AD}" name="Source" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{2ED8F182-028E-4319-B84C-8BB33778C422}" name="Status" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7B152512-8A94-4B7E-B4FF-B90B58C9621A}" name="Needs" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{76C202CC-0587-41E5-B458-2A8BEA8C3329}" name="Requirements" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E9574316-2D65-4AF9-8885-A7242BA5FCB2}" name="Validation" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{555AF6C9-D83E-4820-8582-962A4681B52D}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{490B23D2-915E-4759-9D79-04476ADB20AD}" name="Source" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{2ED8F182-028E-4319-B84C-8BB33778C422}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AE1A9E-9FF7-4A44-A39C-A85BF9A30DB4}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -794,7 +794,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
@@ -809,7 +809,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
@@ -840,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -870,14 +870,14 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
@@ -885,14 +885,14 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
@@ -900,7 +900,7 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -959,7 +959,9 @@
         <v>6</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -969,7 +971,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -992,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -1004,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1012,10 +1014,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -1027,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1035,10 +1037,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -1063,15 +1065,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007853F880FDE214F97EBD9259D8D9A3D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b01ebe48e42adf41c500676c53a248de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1eccce01-e60f-4d14-91b8-d33a907b38d2" xmlns:ns3="9b81e8ed-b61e-48e9-88bb-f73b2ee7ed76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83064e982c07bc0b70267913affd5d46" ns2:_="" ns3:_="">
     <xsd:import namespace="1eccce01-e60f-4d14-91b8-d33a907b38d2"/>
@@ -1236,6 +1229,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1243,14 +1245,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76114566-5E9E-4FEB-9A9F-93DC654DF86F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47495FB2-9D46-4DB4-AD22-66F345C856BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1265,6 +1259,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76114566-5E9E-4FEB-9A9F-93DC654DF86F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
